--- a/Inputs/Orange/benefits1.xlsx
+++ b/Inputs/Orange/benefits1.xlsx
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="117">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -173,24 +173,27 @@
     <t xml:space="preserve">Regional Plus- Bronze</t>
   </si>
   <si>
+    <t xml:space="preserve">Starter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 15,00,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 10,00,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 5,00,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 2,50,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">none</t>
   </si>
   <si>
-    <t xml:space="preserve">Annual Limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 15,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 10,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 5,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 2,50,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Geographical Coverage</t>
   </si>
   <si>
@@ -209,16 +212,16 @@
     <t xml:space="preserve">NAS Neuron Comprehensive NW</t>
   </si>
   <si>
-    <t xml:space="preserve">NAS% Neuron General NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAS% Neuron Restricted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAS% Neuron Super Restricted NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAS% Neuron Workers </t>
+    <t xml:space="preserve">NAS# Neuron General NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS# Neuron Restricted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS# Neuron Super Restricted NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS# Neuron Workers </t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -292,9 +295,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Starter</t>
-  </si>
-  <si>
     <t xml:space="preserve">In-patient (Hospitalization &amp; Surgery)</t>
   </si>
   <si>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">Out-patient (Consultations, Lab &amp; Diagnostics, Pharmacy, Physiotherapy)</t>
   </si>
   <si>
-    <t xml:space="preserve">Out-patient benefits </t>
+    <t xml:space="preserve">Out-patient benefits</t>
   </si>
   <si>
     <t xml:space="preserve">Medicines covered in full with $ co-pay; OP covered in full with $  co-pay
@@ -407,7 +407,7 @@
     <t xml:space="preserve">Optional Benefits Available</t>
   </si>
   <si>
-    <t xml:space="preserve">Dental Waiting Period </t>
+    <t xml:space="preserve">Dental Waiting Period</t>
   </si>
   <si>
     <t xml:space="preserve">No wait</t>
@@ -592,17 +592,17 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -717,51 +717,51 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -773,7 +773,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -865,11 +865,11 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.99"/>
@@ -923,172 +923,172 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
+      <c r="A3" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="G4" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>23</v>
+      <c r="A5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>29</v>
+      <c r="A7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>31</v>
+      <c r="F8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>23</v>
+      <c r="A9" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>36</v>
+      <c r="C10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>38</v>
@@ -1110,8 +1110,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>25</v>
+      <c r="A12" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>40</v>
@@ -1133,8 +1133,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>25</v>
+      <c r="A13" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>41</v>
@@ -1156,31 +1156,31 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>25</v>
+      <c r="A14" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>25</v>
+      <c r="A15" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>44</v>
@@ -1202,21 +1202,21 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>23</v>
+      <c r="A16" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>48</v>
@@ -1238,54 +1238,54 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>25</v>
+      <c r="A18" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>25</v>
+      <c r="A19" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>53</v>
@@ -1307,90 +1307,90 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>25</v>
+      <c r="A21" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>25</v>
+      <c r="A22" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>29</v>
+      <c r="A23" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>23</v>
+      <c r="A24" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>63</v>
@@ -1412,90 +1412,90 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>29</v>
+      <c r="A26" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>25</v>
+      <c r="A27" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>25</v>
+      <c r="A28" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>23</v>
+      <c r="A29" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>72</v>
@@ -1517,40 +1517,44 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>29</v>
+      <c r="A31" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11" t="s">
+      <c r="D31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>23</v>
+      <c r="A32" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>29</v>
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>78</v>
@@ -1572,266 +1576,266 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>29</v>
+      <c r="A34" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>25</v>
+    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>25</v>
+      <c r="A36" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
-        <v>29</v>
+      <c r="A37" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
-        <v>25</v>
+      <c r="A38" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
-        <v>25</v>
+      <c r="A39" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
-        <v>25</v>
+      <c r="A40" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>25</v>
+      <c r="A41" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>23</v>
+      <c r="A42" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
-        <v>29</v>
+      <c r="A43" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="s">
-        <v>29</v>
+      <c r="A44" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
-        <v>29</v>
+      <c r="A45" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>106</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -1851,163 +1855,163 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
-        <v>7</v>
+      <c r="A47" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
-        <v>7</v>
+      <c r="A48" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
-        <v>7</v>
+      <c r="A49" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G49" s="11" t="s">
+      <c r="C49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="s">
-        <v>7</v>
+      <c r="A50" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G50" s="11" t="s">
+      <c r="C50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="s">
-        <v>7</v>
+      <c r="A51" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G51" s="11" t="s">
+      <c r="C51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="s">
-        <v>7</v>
+      <c r="A52" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G52" s="11" t="s">
+      <c r="C52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11" t="s">
-        <v>7</v>
+      <c r="A53" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G53" s="11" t="s">
+      <c r="C53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>113</v>
       </c>
     </row>

--- a/Inputs/Orange/benefits1.xlsx
+++ b/Inputs/Orange/benefits1.xlsx
@@ -506,7 +506,120 @@
     <t xml:space="preserve">Copays</t>
   </si>
   <si>
-    <t xml:space="preserve">Nil/5%/10%/15%/20%/25%/30%</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Nil (Pharmacy Copay)/5% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Pharmacy Copay)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Pharmacy Copay)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/15% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Pharmacy Copay)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/20% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Pharmacy Copay)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/25% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Pharmacy Copay)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/30% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Pharmacy Copay)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">$</t>
@@ -546,7 +659,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="&quot;AED&quot;#,##0_);[RED]&quot;(AED&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -627,6 +740,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF222222"/>
@@ -781,7 +900,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -865,11 +984,11 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J40" activeCellId="0" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.99"/>
@@ -1831,7 +1950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>13</v>
       </c>
@@ -2018,7 +2137,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Inputs/Orange/benefits1.xlsx
+++ b/Inputs/Orange/benefits1.xlsx
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="117">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -173,6 +173,9 @@
     <t xml:space="preserve">Regional Plus- Bronze</t>
   </si>
   <si>
+    <t xml:space="preserve">dependsOn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Starter</t>
   </si>
   <si>
@@ -197,31 +200,25 @@
     <t xml:space="preserve">Geographical Coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">Worldwide excluding US and Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UAE, GCC, ISC and South East Asia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UAE</t>
+    <t xml:space="preserve">UAE/UAE &amp; SEA/UAE, GCC &amp; SEA/Worldwide excluding USA, Canada &amp; Europe/Worldwide excluding US and Canada/Worldwide including USA</t>
   </si>
   <si>
     <t xml:space="preserve">Network Details</t>
   </si>
   <si>
-    <t xml:space="preserve">NAS Neuron Comprehensive NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAS# Neuron General NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAS# Neuron Restricted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAS# Neuron Super Restricted NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAS# Neuron Workers </t>
+    <t xml:space="preserve">NAS Comprehensive Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS General Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS Restricted Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS Super Restricted Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS Workers Network (OP &amp; IP available at Hospitals)</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -237,13 +234,7 @@
   </si>
   <si>
     <t xml:space="preserve">Out of network claims handling can be submitted via mobile device or email.    
-Out of network (Within UAE)- 80% of UAE applicable network rates
-Outside UAE within territory of coverage- Actuals subject to a cap of 130% UAE Equivalent Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out of network claims handling can be submitted via mobile device or email.    
-Out of network (Within UAE)- 80% of UAE applicable network rates
-</t>
+100% on direct billing within the network. Outside network within UAE &amp; at Government hospitals are on 80% of UAE applicable network rates on reimbursement. However, outside UAE non-network claims will be reimbursed on actual basis subject to a cap of 130% UAE equivalent cost. Emergency treatment outside network will be reimbursed on 100% of UAE applicable network rates</t>
   </si>
   <si>
     <t xml:space="preserve">All</t>
@@ -252,12 +243,7 @@
     <t xml:space="preserve">Chronic Condition Cover</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full 
-*6 months wait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 250,000
-*6 months wait</t>
+    <t xml:space="preserve">Covered in full</t>
   </si>
   <si>
     <t xml:space="preserve">Pre-existing Condition Cover</t>
@@ -298,8 +284,7 @@
     <t xml:space="preserve">In-patient (Hospitalization &amp; Surgery)</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full with a cap of AED 500 payable per encounter and an annual aggregate cap of AED 1,000
-Above these caps the insurer will cover 100% of treatment.</t>
+    <t xml:space="preserve">Covered in full </t>
   </si>
   <si>
     <t xml:space="preserve">Diagnostics &amp; Test</t>
@@ -311,16 +296,14 @@
     <t xml:space="preserve">Oncology</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered for members enrolled under BASMAH initiative</t>
+    <t xml:space="preserve">Not Available</t>
   </si>
   <si>
     <t xml:space="preserve">Organ Transplant</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 25,000, subject to pre-apporval.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 10,000, subject to pre-apporval.</t>
+    <t xml:space="preserve">Covered up to AED 25,000, subject to pre-apporval
+(recipient only excluding cost organ)</t>
   </si>
   <si>
     <t xml:space="preserve">Out-patient (Consultations, Lab &amp; Diagnostics, Pharmacy, Physiotherapy)</t>
@@ -376,22 +359,32 @@
     <t xml:space="preserve">Maternity (Consultations, Scans and Delivery)</t>
   </si>
   <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 10,000 with 10% co-pay
+    <t xml:space="preserve">OP- Covered in full
+IP- Covered up to AED 10,000 with AED 500 deductible
 (Optional Benefits Available)</t>
   </si>
   <si>
     <t xml:space="preserve">Maternity Waiting Period</t>
   </si>
   <si>
-    <t xml:space="preserve">280 days wait for new applicants</t>
+    <t xml:space="preserve">280-day waiting period applies to non-declared pregnancies. However, no waiting period is applicable for declared ongoing pregnancies or declared planned pregnancies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">281-day waiting period applies to non-declared pregnancies. However, no waiting period is applicable for declared ongoing pregnancies or declared planned pregnancies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">282-day waiting period applies to non-declared pregnancies. However, no waiting period is applicable for declared ongoing pregnancies or declared planned pregnancies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">283-day waiting period applies to non-declared pregnancies. However, no waiting period is applicable for declared ongoing pregnancies or declared planned pregnancies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">284-day waiting period applies to non-declared pregnancies. However, no waiting period is applicable for declared ongoing pregnancies or declared planned pregnancies</t>
   </si>
   <si>
     <t xml:space="preserve">Complications of Pregnancy</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full</t>
-  </si>
-  <si>
     <t xml:space="preserve">New Born Cover</t>
   </si>
   <si>
@@ -485,6 +478,9 @@
     <t xml:space="preserve">Other Services</t>
   </si>
   <si>
+    <t xml:space="preserve">Fitness and diet management &amp; Chronic disease management program</t>
+  </si>
+  <si>
     <t xml:space="preserve">Member Web Portal</t>
   </si>
   <si>
@@ -506,120 +502,7 @@
     <t xml:space="preserve">Copays</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Nil (Pharmacy Copay)/5% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Pharmacy Copay)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/10% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Pharmacy Copay)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/15% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Pharmacy Copay)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/20% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Pharmacy Copay)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/25% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Pharmacy Copay)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/30% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Pharmacy Copay)</t>
-    </r>
+    <t xml:space="preserve">Nil (Pharmacy Co-pay)/5% (Pharmacy Co-pay)/10% (Pharmacy Co-pay)/15% (Pharmacy Co-pay)/20% (Pharmacy Co-pay)/25% (Pharmacy Co-pay)/30% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">$</t>
@@ -659,7 +542,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="&quot;AED&quot;#,##0_);[RED]&quot;(AED&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -719,6 +602,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -741,7 +631,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -819,7 +709,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -864,43 +754,67 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -982,13 +896,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J40" activeCellId="0" sqref="J40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.99"/>
@@ -1017,42 +931,45 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>16</v>
@@ -1061,38 +978,38 @@
         <v>16</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1100,81 +1017,81 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="D8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>32</v>
+      <c r="E8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1182,150 +1099,150 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="C12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>39</v>
+      <c r="C13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>45</v>
-      </c>
       <c r="D15" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1333,173 +1250,176 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>49</v>
+        <v>8</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1507,104 +1427,107 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="E26" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="F26" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="G26" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1614,56 +1537,56 @@
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>73</v>
-      </c>
       <c r="D30" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1673,204 +1596,214 @@
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>73</v>
+        <v>28</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="D35" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="F35" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="G35" s="23" t="s">
         <v>85</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="D37" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="11" t="s">
+      <c r="F37" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>96</v>
+      <c r="G37" s="23" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="D39" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>102</v>
@@ -1883,101 +1816,101 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="26" t="s">
         <v>108</v>
       </c>
       <c r="C47" s="9" t="s">
@@ -1998,9 +1931,9 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="26" t="s">
         <v>110</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2021,9 +1954,9 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="26" t="s">
         <v>112</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -2044,9 +1977,9 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="26" t="s">
         <v>114</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -2067,10 +2000,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>72</v>
+        <v>14</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>113</v>
@@ -2090,9 +2023,9 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="26" t="s">
         <v>115</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -2113,9 +2046,9 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="26" t="s">
         <v>116</v>
       </c>
       <c r="C53" s="4" t="s">

--- a/Inputs/Orange/benefits1.xlsx
+++ b/Inputs/Orange/benefits1.xlsx
@@ -25,7 +25,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="C25" authorId="0">
+    <comment ref="C24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0">
+    <comment ref="D24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0">
+    <comment ref="E24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,31 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Microsoft Office User:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Display only this benefit on V1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G25" authorId="0">
+    <comment ref="F24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="106">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -170,12 +146,6 @@
     <t xml:space="preserve">Regional Plus- Silver</t>
   </si>
   <si>
-    <t xml:space="preserve">Regional Plus- Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dependsOn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Starter</t>
   </si>
   <si>
@@ -206,19 +176,16 @@
     <t xml:space="preserve">Network Details</t>
   </si>
   <si>
-    <t xml:space="preserve">NAS Comprehensive Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAS General Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAS Restricted Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAS Super Restricted Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAS Workers Network (OP &amp; IP available at Hospitals)</t>
+    <t xml:space="preserve">Neuron General Network Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuron General Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuron Restricted Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuron Restricted Network 1</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -243,7 +210,7 @@
     <t xml:space="preserve">Chronic Condition Cover</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full</t>
+    <t xml:space="preserve">Covered up to the Annual Maximum Limit(AML) if evidence of continuity of coverage (COC) in UAE is provided; otherwise, the limit will be restricted to AED 250,000. Treatment for chronic and pre-existing conditions excluded for first 6 months of first scheme membership, included thereafter.This requirement is waived in the event that there is an emergency case where the cover is up to AML.</t>
   </si>
   <si>
     <t xml:space="preserve">Pre-existing Condition Cover</t>
@@ -302,24 +269,16 @@
     <t xml:space="preserve">Organ Transplant</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 25,000, subject to pre-apporval
-(recipient only excluding cost organ)</t>
+    <t xml:space="preserve">Covered up to maximum AED 100,000 with 20% co-pay subject to prior approval</t>
   </si>
   <si>
     <t xml:space="preserve">Out-patient (Consultations, Lab &amp; Diagnostics, Pharmacy, Physiotherapy)</t>
   </si>
   <si>
-    <t xml:space="preserve">Out-patient benefits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medicines covered in full with $ co-pay; OP covered in full with $  co-pay
-Consultations covered with $ co-pay</t>
-  </si>
-  <si>
     <t xml:space="preserve">Out-patient Consultations</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full with $ co-pay</t>
+    <t xml:space="preserve">Covered in full with  co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Out-patient Specialists</t>
@@ -328,7 +287,7 @@
     <t xml:space="preserve">Out-patient Medicines</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full with $ co-pay
+    <t xml:space="preserve">Covered in full with  co-pay
 (Optional Benefits Available)</t>
   </si>
   <si>
@@ -360,8 +319,7 @@
   </si>
   <si>
     <t xml:space="preserve">OP- Covered in full
-IP- Covered up to AED 10,000 with AED 500 deductible
-(Optional Benefits Available)</t>
+IP- Covered in full with AED 500 deductible</t>
   </si>
   <si>
     <t xml:space="preserve">Maternity Waiting Period</t>
@@ -370,21 +328,12 @@
     <t xml:space="preserve">280-day waiting period applies to non-declared pregnancies. However, no waiting period is applicable for declared ongoing pregnancies or declared planned pregnancies</t>
   </si>
   <si>
-    <t xml:space="preserve">281-day waiting period applies to non-declared pregnancies. However, no waiting period is applicable for declared ongoing pregnancies or declared planned pregnancies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">282-day waiting period applies to non-declared pregnancies. However, no waiting period is applicable for declared ongoing pregnancies or declared planned pregnancies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">283-day waiting period applies to non-declared pregnancies. However, no waiting period is applicable for declared ongoing pregnancies or declared planned pregnancies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">284-day waiting period applies to non-declared pregnancies. However, no waiting period is applicable for declared ongoing pregnancies or declared planned pregnancies</t>
-  </si>
-  <si>
     <t xml:space="preserve">Complications of Pregnancy</t>
   </si>
   <si>
+    <t xml:space="preserve">Covered in full</t>
+  </si>
+  <si>
     <t xml:space="preserve">New Born Cover</t>
   </si>
   <si>
@@ -418,7 +367,7 @@
     <t xml:space="preserve">Wellness &amp; Health Screening</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered</t>
+    <t xml:space="preserve">Covered through Trudoc facilities only</t>
   </si>
   <si>
     <t xml:space="preserve">Alternative Medicines</t>
@@ -436,9 +385,6 @@
     <t xml:space="preserve">Covered up to AED 2,500  with 20% co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 2,500  with 20% co-pay </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mental Health Benefit</t>
   </si>
   <si>
@@ -454,9 +400,6 @@
     <t xml:space="preserve">Psychiatric treatment covered up to AED 2,000 with 10% co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Psychiatric treatment covered up to AED 1,500 with 10% co-pay</t>
-  </si>
-  <si>
     <t xml:space="preserve">Emergency Evacuation</t>
   </si>
   <si>
@@ -505,12 +448,6 @@
     <t xml:space="preserve">Nil (Pharmacy Co-pay)/5% (Pharmacy Co-pay)/10% (Pharmacy Co-pay)/15% (Pharmacy Co-pay)/20% (Pharmacy Co-pay)/25% (Pharmacy Co-pay)/30% (Pharmacy Co-pay)</t>
   </si>
   <si>
-    <t xml:space="preserve">$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nil/Nil/Nil-5%/5%/5%-10%/10%/10%-15%/15%/15%/-20%/20%/20%-25%/25%/25%-30%/30%/30%</t>
-  </si>
-  <si>
     <t xml:space="preserve">In-patient only</t>
   </si>
   <si>
@@ -524,6 +461,9 @@
   </si>
   <si>
     <t xml:space="preserve">Routine Maternity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental Filter</t>
   </si>
   <si>
     <t xml:space="preserve">Wellness</t>
@@ -542,7 +482,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="&quot;AED&quot;#,##0_);[RED]&quot;(AED&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -605,6 +545,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -630,16 +577,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FF222222"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -651,12 +600,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -709,7 +670,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -758,63 +719,111 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -869,7 +878,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -896,17 +905,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="59.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="59.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,444 +938,382 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="72.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="15" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="72.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>30</v>
+      <c r="D8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="14" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>36</v>
+      <c r="D11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>42</v>
+      <c r="D15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>45</v>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1373,294 +1321,258 @@
         <v>25</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" s="27" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" s="27" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="C25" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="D25" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="E25" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="F25" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="14" t="s">
+      <c r="C26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="21"/>
+      <c r="D26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>72</v>
+      <c r="B29" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>75</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>72</v>
+        <v>25</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="F35" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,409 +1580,317 @@
         <v>25</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>95</v>
+        <v>86</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>97</v>
+        <v>22</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>99</v>
+        <v>22</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="B42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="45.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>109</v>
+        <v>12</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>110</v>
+        <v>12</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>102</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>112</v>
+        <v>12</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>103</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>114</v>
+        <v>12</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>71</v>
+        <v>12</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>105</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
